--- a/dados_raspados_PA.xlsx
+++ b/dados_raspados_PA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G418"/>
+  <dimension ref="A1:G431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17388,29 +17388,29 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>E M E I E F BOM JARDIM I</t>
+          <t>E M E F MARIA DE LOURDES CASADINI DA SILVA</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>RODOVIA TRANSAMAZONICA, KM 45 COBRA CHOCA. ZONA RURAL. 68383-000 Vitória do Xingu - PA.</t>
+          <t>RUA ANTONIO ALVES DE CARVALHO, 56 ESCOLA CASADINI. EXPANSAO. 68560-000 Santana do Araguaia - PA.</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>(93) 99212-7520</t>
+          <t>94.</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
           <t xml:space="preserve">
-15111040</t>
+15524655</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rural</t>
+Urbana</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -17422,30 +17422,30 @@
       <c r="G415" t="inlineStr">
         <is>
           <t xml:space="preserve">
-                        Ensino Infantil, Ensino Fundamental</t>
+                        Ensino Infantil, Ensino Fundamental, Anos Iniciais, Anos Finais</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>E M E I E F AVELINA MARIA DA SILVA</t>
+          <t>E M E F VILA NOVA</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>RODOVIA ERNESTO ACIOLY, KM 40 RAMAL DO COCO. ZONA RURAL. 68383-000 Vitória do Xingu - PA.</t>
+          <t>VILA NOVA MARO - RIO ARAPIUNS, 68115-000 Santarém - PA.</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>(93) 99212-7520</t>
+          <t>Informação indisponível</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
           <t xml:space="preserve">
-15105920</t>
+15156770</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -17470,64 +17470,64 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>E M E I E F PADRE EURICO KRAUTLER</t>
+          <t>EEEM ALVARO ADOLFO DA SILVEIRA</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>RODOVIA ERNESTO ACIOLY KM 20, SN ZONA RURAL. 68383-000 Vitória do Xingu - PA.</t>
+          <t>AV MARECHAL RONDON, SN SANTA CLARA. 68005-120 Santarém - PA.</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>93.</t>
+          <t>(93) 3522-2329</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
           <t xml:space="preserve">
-15111270</t>
+15011372</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rural</t>
+Urbana</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Municipal</t>
+Estadual</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
           <t xml:space="preserve">
-                        Ensino Infantil, Ensino Fundamental</t>
+                        Ensino Médio</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>E M E I F PADRE JOAO LUIZ PURGUY</t>
+          <t>E M E F NSRA DAS GRACAS</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>AV JADER FONTENELLE BARBALHO, SN DISTRITO RIO VERMELHO. 68559-500 Xinguara - PA.</t>
+          <t>COMUNIDADE DE AMARI, ARAPIUNS. 68115-000 Santarém - PA.</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>(94) 99257-8784</t>
+          <t>..</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
           <t xml:space="preserve">
-15134296</t>
+15013260</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -17543,6 +17543,539 @@
         </is>
       </c>
       <c r="G418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>E M E F SANTISSIMA TRINDADE</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>SANTISSIMA TRINDADE- VILA DO ARITAPERA, VARZEA. 68124-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15140849</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>E M E I E F PROF OLINDO LUIZ DO CARMO NEVES</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>RUA ITUQUI, S/N IGREJA DO AMPARO. AMPARO. 68035-670 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>(93) 99121-8227</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15013626</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>E M E F VINTE DE JULHO</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>COMUNIDADE CORREIO DO TAPARA, VARZEA. 68124-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15147991</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>E M E F CEL MARIO FERNANDES IMBIRIBA</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>RUA CASTELO BRANCO, INTERVENTORIA. 68015-260 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>(93) 3523-4313</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15012115</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>E M E I E F NOVA ESPERANCA</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>COMUNIDADE NOVA ESPERANCA DO ITUQUI, S/N ZONA RURAL. PLANALTO. 68128-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15540650</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>E M E F JOSE DE MELO FILHO</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>VILA DE AMORIM, RIO TAPAJOS. ZONA RURAL. 68115-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>(93) 3584-4125</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15015955</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>E M E F RAIMUNDA DE LIRA MAIA</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>TRAVESSA B, S/N ELCIONE BARBALHO. 68040-050 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>(93) 99182-2030</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15567044</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>EEEF RICHARD HENNINGTON</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>TRAVESSA XINGU, 997 ENTRE AVENIDA PALHAO. DIAMANTINO. 68020-140 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>(93) 3524-3435</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15011712</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Estadual</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>E M E F SAO TOME</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>COMUNIDADE SAO PEDRO, PLANALTO. 68123-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>(93) 3596-2063</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15589404</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>E M E F NOSSA SRA DE FATIMA</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>ALDEIA NOVA VISTA- ARAPIUNS, ARAPIUNS. 68115-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15013049</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental, Anos Finais</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>E M E F JAYME BARCESSAT</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>HIDRELETRICA DE CURUA-UNA, PA 370 KM74, PLANALTO. 68010-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>93.</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15011232</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>EEEM JULIA PASSARINHO - ANEXO I</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>AVENIDA COSTA E SILVA, SN PROX. POSTO DE SAUD. MARARU. 68050-070 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>(93) 3523-5994</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15170080</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Estadual</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Médio</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>E M E F STA TEREZINHA</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>BOCA DE CIMA DO ARITAPERA, VARZEA. 68124-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>(93) 99163-8872</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15015084</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
         <is>
           <t xml:space="preserve">
                         Ensino Infantil, Ensino Fundamental</t>

--- a/dados_raspados_PA.xlsx
+++ b/dados_raspados_PA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G431"/>
+  <dimension ref="A1:G502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10136,23 +10136,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>E M E I F ALACID NUNES</t>
+          <t>E M E I F SAO FRANCISCO DE CANINDE</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>VILA PATRIMONIO, SN PROX AO CAMPO FUTBOL. ZONA RURAL. 68655-000 Irituia - PA.</t>
+          <t>KM 01 BR 010, ZONA RURAL. 68655-000 Irituia - PA.</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>(91) 99609-3489</t>
+          <t>..</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
           <t xml:space="preserve">
-15538729</t>
+15092089</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10177,23 +10177,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>E M E F SAO MATEUS</t>
+          <t>E M E I F ALACID NUNES</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>VILA SAO MATEUS, ZONA RURAL. 68655-000 Irituia - PA.</t>
+          <t>VILA PATRIMONIO, SN PROX AO CAMPO FUTBOL. ZONA RURAL. 68655-000 Irituia - PA.</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>..</t>
+          <t>(91) 99609-3489</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
           <t xml:space="preserve">
-15092178</t>
+15538729</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10211,7 +10211,7 @@
       <c r="G239" t="inlineStr">
         <is>
           <t xml:space="preserve">
-                        Ensino Infantil</t>
+                        Ensino Infantil, Ensino Fundamental</t>
         </is>
       </c>
     </row>
@@ -18076,6 +18076,2912 @@
         </is>
       </c>
       <c r="G431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>EEEFM ONESIMA PEREIRA DE BARROS</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>AV MENDONCA FURTADO, 3103 ANTNIO JUSTA E FREI. FATIMA. 68040-050 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>(93) 3522-1549</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15011690</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Estadual</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental, Ensino Médio</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>E M E F NSRA DA CONCEICAO</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>COMUNIDADE DE BACURIZINHO, 68115-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15589919</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>EEEFM PLACIDO DE CASTRO</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>AV SERGIO HENN, SN DIAMANTINO. 68020-000 Santarém - PA.</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>(93) 3524-1666</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15011674</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Estadual</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Médio, Anos Finais</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>ESCOLA MUNICIPAL DE ENSINO INFANTIL E FUNDAMENTAL SANTA LUCIA</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>VILA DE PEDRINHAS, SN ZONA RURAL. CENTRO. 68720-000 Santarém Novo - PA.</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15063658</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental, Anos Iniciais</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>E M E F SANTANA DA LAURA</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>SANTANA DA LAURA, MEIO RURAL. 68786-000 Santo Antônio do Tauá - PA.</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15048365</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>E M E F PE ALCIDES PARANHOS</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>PA/140 KM 25, MEIO RURAL. 68786-000 Santo Antônio do Tauá - PA.</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15048047</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>E M E F MAGALHAES BARATA</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>TRAV. JOAO COELHO, LOCALIDADE. MEIO RURAL. 68786-000 Santo Antônio do Tauá - PA.</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>91.</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15047997</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>E M E I F KM 14</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>PA/140 KM 14, MEIO RURAL. 68786-000 Santo Antônio do Tauá - PA.</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>91.</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15047890</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>E M E F GRATULINA PENHA ALVES DIAS</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>SANTA MARIA DO UBINTUB, MEIO RURAL. 68786-000 Santo Antônio do Tauá - PA.</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>91.</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15048322</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>E M E F DE MATUPIRI</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>LOCALIDADE DE MATUPIRI, 68775-000 São Caetano de Odivelas - PA.</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>(91) 99908-0285</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15052915</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>E M E F DE MERATAUA</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>LOCALIDADE DE MERATAUA, 68775-000 São Caetano de Odivelas - PA.</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>(91) 99374-8665</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15052923</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>E M E F SAO RAIMUNDO</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>SAGRADA FAMILIA-TAUARI, S/N ZONA RURAL. 68635-000 São Domingos do Capim - PA.</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15522512</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>E M E F SAO SEBASTIAO</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>SANTA LUZIA / ESTRADINHA, ZONA RURAL. 68635-000 São Domingos do Capim - PA.</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15095550</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>E M E F DOM BOSCO</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>COMUNIDADE SAUA GRANDE, ZONA RURAL. 68635-000 São Domingos do Capim - PA.</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15094901</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental, Anos Iniciais</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>E M E F NOVA UNIAO</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>COMUNIDADE SAO RAIMUNDO NONATO - KM 09 - PA 252 - VIA CAPIM, SN ZONA RURAL. 68635-000 São Domingos do Capim - PA.</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15081257</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental, Anos Iniciais, Anos Finais</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>E M E F BARBARA DE ALENCAR</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>AVENIDA RIO XINGU, SN PROXIMO AO AEROPORTO. SETOR AEROPORTO. 68380-000 São Félix do Xingu - PA.</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>(94) 98191-9409</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15535592</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>E M E F SORRISO DO SOL</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>VICINAL PENA BRANCA, SN PA LINDOESTE. DISTRITO LINDOESTE. 68380-000 São Félix do Xingu - PA.</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>(94) 98173-4353</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15138587</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>E M E F CEU AZUL</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>LADEIRA VERMELHA, 68380-000 São Félix do Xingu - PA.</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15121879</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>E M E F INDIGENA JAKURIRE</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>ALDEIA PYKARARAKRE, RIO XINGU. ZONA RURAL. 68380-000 São Félix do Xingu - PA.</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15573028</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>E M E F NOVO OESTE</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>VICINAL RIO PARA, COLONIA NOVO OESTE. DISTRITO LINDOESTE. 68380-000 São Félix do Xingu - PA.</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>(94) 99305-0224</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15122018</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>E M E F SAO JORGE</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>TRAVESSA BARRO BRANCO, ZONA RURAL. 68748-000 São Francisco do Pará - PA.</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15064174</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>E M E F STA LUZIA</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>TRAVESSA SANTA LUZIA, RURAL. 68748-000 São Francisco do Pará - PA.</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15064204</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental, Anos Iniciais</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>E M E F STA RITA</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>TRAVESSA CARANA I, ZONA RURAL. 68748-000 São Francisco do Pará - PA.</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15064000</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>E M E F OLAVO BILAC</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>PARAUNA, RURAL. 68570-000 São Geraldo do Araguaia - PA.</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>(94) 98160-4990</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15133273</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>E M E F JUSCELINO KUBITSHEK</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>BATATEIRA, RURAL. 68570-000 São Geraldo do Araguaia - PA.</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>(94) 98147-9740</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15133117</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>EEEM PROF ANTONIA ROSA</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>AV 27 DE DEZEMBRO, 12 CENTRO. 68774-000 São João da Ponta - PA.</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>91.</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15053440</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Estadual</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Médio</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>EMEIF DE AIMORES</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>PA 124 - VILA DE AIMORES, VILA DE AIMORES. 68719-000 São João de Pirabas - PA.</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15053679</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>EMEF PROF GUAJARINA MENEZES SILVA</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>RUA IINDEPENDENCIA, 215 PROXIMO BIBLIOTECA. INDEPENDENCIA. 68719-000 São João de Pirabas - PA.</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15053563</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental, Anos Iniciais, Anos Finais</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>E M E F EXUPERO SEIXAS</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>RUA OSVALDO MUTRAN VILA APINAGES, ZONA RURAL. 68518-000 São João do Araguaia - PA.</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>(94) 98407-8283</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15142094</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>E M E F PROF INACIA CARVALHO DE MELO</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>MENINO DEUS, SN ZONA RURAL. 68660-000 São Miguel do Guamá - PA.</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15096149</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>E M E I F JOSE FERREIRA FARIAS</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>SAO PEDRO DO CRAUATEUA, SN ZONA RURAL. 68660-000 São Miguel do Guamá - PA.</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15095843</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental, Anos Iniciais, Anos Finais</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>E M E F MANOEL PAULO DA SILVA</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>SANTA RITA DE BARREIRA, SN RURAL. 68660-000 São Miguel do Guamá - PA.</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15096912</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>E M E I F ALACID NUNES</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>RIO PRACUUBA MIRI, ZONA RURAL. 68820-000 São Sebastião da Boa Vista - PA.</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15027864</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>E M E I F RAQUEL</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>RIO UMARITUBA, ZONA RURAL. 68820-000 São Sebastião da Boa Vista - PA.</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15028135</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>E M E I F SAO MARCOS</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>ILHA CHAVES, ZONA RURAL. 68820-000 São Sebastião da Boa Vista - PA.</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>91.</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15028259</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>E M E F DR ALMIR JOSE DE OLIVEIRA GABRIEL</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>RUA JATOBA, SN SETOR SOL NASCENTE. 68548-000 Sapucaia - PA.</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>(94) 99155-6487</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15167410</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>E M E F ABEL FIGUEIREDO</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>DISTRITO DE VILA NOVA, RUA A. ZONA RURAL. 68360-000 Senador José Porfírio - PA.</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>(91) 3556-1336</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15109178</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>E M E F PLANALTO</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>TRANSUNIAO, ZONA RURAL. 68360-000 Senador José Porfírio - PA.</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15584607</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>EEEM ROSA ALVAREZ REBELO SEDE</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>RUA SETE DE SETEMBRO, 576 CENTRO. 68360-000 Senador José Porfírio - PA.</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>(91) 3556-1397</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15109194</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Estadual</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Médio</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>EMEF NOVA CONQUISTA</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>NOVO TRANSUNIAO, ACESSO 2. ZONA RURAL. 68360-000 Senador José Porfírio - PA.</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15164500</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>EMEI DOM ALQUILIO ALVAREZ DIEZ</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>3ª RUA, S/N PROLONGAMENTO. CENTRO. 68870-000 Soure - PA.</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15033783</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>E M E I F NOSSA SENHORA DE FATIMA II</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>RODOVIA PA 150 VICINAL RAJADA, S/N VILA RAJADA. ZONA RURAL. 68695-000 Tailândia - PA.</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>(91) 99209-5574</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15084647</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>E M E I F SANTANA I</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>RODOVIA PA 150, S/N VILA SANTANA I. ZONA RURAL. 68695-000 Tailândia - PA.</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>(91) 99201-7810</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15084884</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>E M E F JOSE MANOEL DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>TRAVESSA CASTANHAL, S/Nº CENTRO. 68695-000 Tailândia - PA.</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>(91) 99300-6354</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15549127</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental, Anos Finais</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>E M E F JOSE PICANCO BENTES</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>TRAVESSA 3 DE OUTUBRO, 599 JUVENIL. 68285-000 Terra Santa - PA.</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>(93) 99176-8083</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15004864</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>E M E I CRECHE NOVA VIDA</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>RUA 15 DE NOVEMBRO, 236 ASSISTENCIA SOCIAL. CENTRO. 68285-000 Terra Santa - PA.</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>(93) 99129-8014</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15004830</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>E M E I CRECHE NOVA VIDA</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>RUA 15 DE NOVEMBRO, 236 ASSISTENCIA SOCIAL. CENTRO. 68285-000 Terra Santa - PA.</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>(93) 99129-8014</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15004830</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>EMEIF INDIGENA LUCIO PORANGATY TEMBE</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>RAMAL MARIQUITA, SN TURE II. ZONA RURAL. 68680-000 Tomé-Açu - PA.</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15169316</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>E M E I F FORTE DO CASTELO</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>RODOVIA PA 140, SN KM 34 MARUPAUBA. RURAL. 68680-000 Tomé-Açu - PA.</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>(91) 99202-9058</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15587045</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental, Anos Iniciais</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>E M E F PROFª MARIA FIDERALINA DOS SANTOS LOPES</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>AV. SABORUSBA, S/N VENCESLAU. 68682-000 Tomé-Açu - PA.</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>(91) 3734-1644</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15120112</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>E M E I F NEY CARNEIRO BRASIL</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>RODOVIA PA 256, S/N COMUNIDADE CURIMA. JAMIC. 68682-000 Tomé-Açu - PA.</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>(91) 99176-2463</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15120120</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>E M E F MANOEL GOMES DE AGUIAR</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>RIO DAS PEDRAS, S/N 68647-000 Tracuateua - PA.</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15058913</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>E M E F VALDEMAR SOARES DA SILVA</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>CAJUEIRO BOA ESPERANCA, SN ESTRADA DO ALMOCO. 68647-000 Tracuateua - PA.</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>91.</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15057348</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>E M E I F JOAO DE DEUS DA ROSA REIS</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>PEDREIRA DA PREFEITURA, S/N ESCRITORIO PEDREIRA. ZONA RURAL. 68647-000 Tracuateua - PA.</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15058026</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>E M E I F BELA VISTA DE CARACOL</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>TV. PRINCIPAL, S/N P. A IGREJA CATOLICA. CENTRO. 68198-000 Trairão - PA.</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>(93) 3598-2022</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15104524</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental, Anos Finais</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>E M E F TUCUNARE</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>BR 163 KM 1365 LOTE 06, RAMAL SUL. ZONA RURAL. 68198-000 Trairão - PA.</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15104443</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>E M E F D JULIA PASSARINHO</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>RUA MATRIZ DA CONCEICAO, S/N JARDIM PARAISO. 68458-092 Tucuruí - PA.</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15115739</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental, Anos Iniciais, Anos Finais</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>E M E F ALEXANDRE BERGAMIN</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>AVENIDA ULIANOPOLIS, 53 PALMEIRAS. 68632-000 Ulianópolis - PA.</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>(91) 3726-1280</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15120490</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>E M E F SAO JORGE</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>COLONIA SAPUCAIA, SN 68632-000 Ulianópolis - PA.</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15524779</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>E M E F KAUANA</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>ASSENTAMENTO KAUANA, SN 68632-000 Ulianópolis - PA.</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15214010</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>E M E F PROFESSORA EDITH FERREIRA</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>COLONIA NOVA ALIANCA, SN 68632-000 Ulianópolis - PA.</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Informação indisponível</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15159175</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>E M E F ANTONIO CONSELHEIRO</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>BR 230 KM 195 SUL, SN A 15 KM DA FAIXA. ZONA RURAL. 68140-000 Uruará - PA.</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15109844</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>EEEFM PRESIDENTE KENNEDY</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>AV BARAO DE GUAJARA, 591 CENTRO. 68780-000 Vigia - PA.</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>(91) 8855-1094</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15054381</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Estadual</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental, Ensino Médio</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>EEEF BARAO DO GUAJARA</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>TRAVESSA VILHENA ALVES, 202 CENTRO. 68780-000 Vigia - PA.</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>(91) 8128-4227</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15054357</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urbana</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Estadual</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>E M E I F RUFINO DO NASCIMENTO - TIMBOZAL</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>VILA DO TIMBOZAL, ZONA RURAL. 68620-000 Viseu - PA.</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>91.</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15098524</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>E M E F FILOMENA BOGEA</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>TRAVESSA SAPUCAIA, 68620-000 Viseu - PA.</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15098435</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>E M E I F DEPUTADO LUCIO DUTRA VALE - CRISTAL</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>CRISTAL, 68620-000 Viseu - PA.</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15098273</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental, Anos Iniciais, Anos Finais</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>E M E I E F BOM JARDIM I</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>RODOVIA TRANSAMAZONICA, KM 45 COBRA CHOCA. ZONA RURAL. 68383-000 Vitória do Xingu - PA.</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>(93) 99212-7520</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15111040</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>E M E I E F AVELINA MARIA DA SILVA</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>RODOVIA ERNESTO ACIOLY, KM 40 RAMAL DO COCO. ZONA RURAL. 68383-000 Vitória do Xingu - PA.</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>(93) 99212-7520</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15105920</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>E M E I E F PADRE EURICO KRAUTLER</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>RODOVIA ERNESTO ACIOLY KM 20, SN ZONA RURAL. 68383-000 Vitória do Xingu - PA.</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>93.</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15111270</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Ensino Infantil, Ensino Fundamental</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>E M E I F PADRE JOAO LUIZ PURGUY</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>AV JADER FONTENELLE BARBALHO, SN DISTRITO RIO VERMELHO. 68559-500 Xinguara - PA.</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>(94) 99257-8784</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15134296</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rural</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Municipal</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
         <is>
           <t xml:space="preserve">
                         Ensino Infantil, Ensino Fundamental</t>
